--- a/data/trans_bre/P28A_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28A_3_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,37 +620,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,53</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,23</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,57</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,58</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>52,18%</t>
+          <t>-14,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>180,71%</t>
+          <t>74,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>136,9%</t>
+          <t>239,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 42,46</t>
+          <t>-16,33; 10,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 41,32</t>
+          <t>-5,96; 14,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 26,07</t>
+          <t>-2,92; 15,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 22,95</t>
+          <t>0,0; 11,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 276,96</t>
+          <t>-80,06; 246,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 1394,38</t>
+          <t>-66,97; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-54,51; 1070,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -735,27 +735,27 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>-6,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,9%</t>
+          <t>-42,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>62,27%</t>
+          <t>-6,0%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 15,31</t>
+          <t>-7,29; 6,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,16; 8,89</t>
+          <t>-9,7; 2,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 11,47</t>
+          <t>-4,75; 5,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 14,41</t>
+          <t>-4,86; 3,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 68,89</t>
+          <t>-52,94; 94,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,46; 63,84</t>
+          <t>-78,03; 53,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,62; 124,06</t>
+          <t>-59,57; 190,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 347,73</t>
+          <t>-74,32; 279,37</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,12</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,49</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>41,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,77%</t>
+          <t>253,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>78,36%</t>
+          <t>143,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>57,31%</t>
+          <t>132,17%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 28,02</t>
+          <t>-3,37; 9,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 25,4</t>
+          <t>0,37; 9,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 15,35</t>
+          <t>-1,45; 5,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 12,75</t>
+          <t>-0,96; 3,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,03; 195,05</t>
+          <t>-42,34; 321,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,29; 566,62</t>
+          <t>-36,14; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-51,26; 754,65</t>
+          <t>-76,62; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-68,12; 576,44</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 14,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 11,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 9,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 11,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 60,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 91,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 118,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 267,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10,78%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>57,78%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25,3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 4,74</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,55; 3,83</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 5,07</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 2,91</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-38,91; 70,03</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-46,29; 103,96</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-27,27; 300,96</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-59,26; 243,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/P28A_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28A_3_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,44 +627,30 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,78</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,47</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,09</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,62</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-14,85%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>74,31%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>239,58%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>1.324467133079033</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>14.62495401988444</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>12.66927782661838</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>11.8955178115196</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.03222500691004435</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.5730676161200746</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.799421001428136</v>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -663,254 +658,162 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-16,33; 10,52</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,96; 14,47</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 15,22</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,3</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-80,06; 246,95</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-66,97; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-34.81388287529055</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-24.28749160268598</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.821802493301186</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.613661955748679</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.6504870864820039</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>40.26706588611352</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>46.94663529883283</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>31.60608030891197</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>37.70005102076372</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.506633034948497</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>6.741408126217342</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,67</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,51</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-6,59%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-42,15%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>16,59%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-6,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,29; 6,12</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,7; 2,01</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 5,27</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,86; 3,95</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-52,94; 94,98</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-78,03; 53,87</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-59,57; 190,56</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-74,32; 279,37</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>8.360928774672905</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-6.948736959205545</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.670302275021898</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.878308585197928</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.304774567881142</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.2830269780159261</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3586490091324581</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1862913694235934</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,37</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>41,43%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>253,07%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>143,71%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>132,17%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-10.09277524886904</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-23.16405191762846</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-9.159164228999847</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-10.04028393023259</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2834593240227062</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.7133093055025007</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4952949435713735</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6798698459008358</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,37; 9,56</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 9,15</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 5,77</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 3,04</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-42,34; 321,75</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-36,14; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-76,62; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>28.17452178537094</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.470936215597922</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>18.09966639937613</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13.89009428788817</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.644156080552543</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.7205509269297559</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.916663116432479</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.230298963968325</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +821,203 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.769150558309469</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>17.62419126311342</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.007385381765922</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.959655221041831</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.1046266879856219</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>2.020720120234299</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.4323316573685789</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.7994471827481562</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-18.1449081032067</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2434339634015164</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.96004371748771</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.311124493417142</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.4904675013734345</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2897632717305946</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8367696343360618</v>
+      </c>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>24.696478654094</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>36.42007907430485</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.78982144729799</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.90405636712716</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.032137929227468</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,99</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,49%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>10,78%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>57,78%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>25,3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,0; 4,74</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,55; 3,83</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,24; 5,07</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,12; 2,91</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-38,91; 70,03</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-46,29; 103,96</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-27,27; 300,96</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-59,26; 243,21</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.773177106606652</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.616393958374606</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.071431000645828</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.33021905686627</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1647742459474106</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1755281738691064</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3859806028824148</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3641656639101852</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.894325907289788</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.136654334310304</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-5.032126251692315</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.790352789314801</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2230420884038433</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2990357202083011</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3580580917260278</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5030110824301551</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>19.70569814564046</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>15.72632373358968</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.89530599114384</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.229739455939384</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.9205315234175885</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.12327417422699</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.881178744757028</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.99213744034921</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
